--- a/StreamLine API Automator/output/output.xlsx
+++ b/StreamLine API Automator/output/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine API Automator\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6374025C-FB5C-40B2-BD9A-C9CF232FD414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A5B7D-EA99-4B4F-AAE1-ECF984B0C53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Run Summaries" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Bug Write Up</t>
-  </si>
-  <si>
-    <t>|</t>
   </si>
   <si>
     <t>Number of Requests</t>
@@ -84,19 +81,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -232,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -252,7 +243,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -584,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -603,20 +593,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -658,9 +647,6 @@
       </c>
       <c r="N1" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
